--- a/results/4-2021/fim_no_addons.xlsx
+++ b/results/4-2021/fim_no_addons.xlsx
@@ -1,24 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/Fiscal-Impact-Measure/results/4-2021/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7F8231-1596-BB4D-B26A-D5C102B90FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>state_health_outlays</t>
+  </si>
+  <si>
+    <t>state_social_benefits</t>
+  </si>
+  <si>
+    <t>state_noncorp_taxes</t>
+  </si>
+  <si>
+    <t>state_corporate_taxes</t>
+  </si>
+  <si>
+    <t>federal_health_outlays</t>
+  </si>
+  <si>
+    <t>federal_social_benefits</t>
+  </si>
+  <si>
+    <t>federal_subsidies</t>
+  </si>
+  <si>
+    <t>federal_cgrants</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +105,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -113,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,64 +436,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>state_health_outlays</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>state_social_benefits</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>state_noncorp_taxes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>state_corporate_taxes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>federal_health_outlays</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>federal_social_benefits</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>federal_subsidies</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>federal_cgrants</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44377</v>
       </c>
@@ -419,13 +485,13 @@
         <v>168.2833827902208</v>
       </c>
       <c r="C2">
-        <v>201.6978704529215</v>
+        <v>201.69787045292151</v>
       </c>
       <c r="D2">
-        <v>1978.37510903441</v>
+        <v>1978.3751090344099</v>
       </c>
       <c r="E2">
-        <v>96.88309909431649</v>
+        <v>96.883099094316492</v>
       </c>
       <c r="F2">
         <v>1394.63952711825</v>
@@ -434,42 +500,42 @@
         <v>1629.356357104331</v>
       </c>
       <c r="H2">
-        <v>404.1853815862339</v>
+        <v>404.18538158623392</v>
       </c>
       <c r="I2">
-        <v>232.0751887131736</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>232.07518871317359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44469</v>
       </c>
       <c r="B3">
-        <v>172.4297655804417</v>
+        <v>172.42976558044171</v>
       </c>
       <c r="C3">
-        <v>188.867292155843</v>
+        <v>188.86729215584299</v>
       </c>
       <c r="D3">
-        <v>2007.017987817435</v>
+        <v>2007.0179878174349</v>
       </c>
       <c r="E3">
-        <v>98.28577083781445</v>
+        <v>98.285770837814454</v>
       </c>
       <c r="F3">
-        <v>1386.0160542365</v>
+        <v>1386.0160542364999</v>
       </c>
       <c r="G3">
-        <v>1501.665288716567</v>
+        <v>1501.6652887165669</v>
       </c>
       <c r="H3">
-        <v>406.114081567775</v>
+        <v>406.11408156777497</v>
       </c>
       <c r="I3">
         <v>215.720203842161</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44561</v>
       </c>
@@ -477,13 +543,13 @@
         <v>173.0148583315212</v>
       </c>
       <c r="C4">
-        <v>193.2489910829784</v>
+        <v>193.24899108297839</v>
       </c>
       <c r="D4">
-        <v>2033.698166208257</v>
+        <v>2033.6981662082569</v>
       </c>
       <c r="E4">
-        <v>99.59232708950204</v>
+        <v>99.592327089502035</v>
       </c>
       <c r="F4">
         <v>1416.247429866125</v>
@@ -492,42 +558,42 @@
         <v>1514.272945247701</v>
       </c>
       <c r="H4">
-        <v>408.0819743831656</v>
+        <v>408.08197438316557</v>
       </c>
       <c r="I4">
-        <v>220.891396207451</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>220.89139620745101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44651</v>
       </c>
       <c r="B5">
-        <v>173.5999510826007</v>
+        <v>173.59995108260071</v>
       </c>
       <c r="C5">
-        <v>199.9762370420827</v>
+        <v>199.97623704208269</v>
       </c>
       <c r="D5">
         <v>2058.944408239478</v>
       </c>
       <c r="E5">
-        <v>100.8286619773099</v>
+        <v>100.82866197730991</v>
       </c>
       <c r="F5">
-        <v>1446.478805495749</v>
+        <v>1446.4788054957489</v>
       </c>
       <c r="G5">
-        <v>1515.615024294951</v>
+        <v>1515.6150242949509</v>
       </c>
       <c r="H5">
-        <v>410.0725577865744</v>
+        <v>410.07255778657441</v>
       </c>
       <c r="I5">
-        <v>226.7691462618087</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>226.76914626180869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44742</v>
       </c>
@@ -535,10 +601,10 @@
         <v>174.1850438336802</v>
       </c>
       <c r="C6">
-        <v>205.8860326616316</v>
+        <v>205.88603266163159</v>
       </c>
       <c r="D6">
-        <v>2079.790258067174</v>
+        <v>2079.7902580671739</v>
       </c>
       <c r="E6">
         <v>101.8495050547117</v>
@@ -550,33 +616,33 @@
         <v>1509.926416318757</v>
       </c>
       <c r="H6">
-        <v>412.0507645056096</v>
+        <v>412.05076450560961</v>
       </c>
       <c r="I6">
-        <v>232.3279523503325</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>232.32795235033251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44834</v>
       </c>
       <c r="B7">
-        <v>174.7701365847597</v>
+        <v>174.77013658475971</v>
       </c>
       <c r="C7">
         <v>212.3326953411578</v>
       </c>
       <c r="D7">
-        <v>2102.168627379193</v>
+        <v>2102.1686273791929</v>
       </c>
       <c r="E7">
-        <v>102.94539721476</v>
+        <v>102.94539721476001</v>
       </c>
       <c r="F7">
-        <v>1506.941556754998</v>
+        <v>1506.9415567549979</v>
       </c>
       <c r="G7">
-        <v>1493.717834055633</v>
+        <v>1493.7178340556329</v>
       </c>
       <c r="H7">
         <v>413.998029513711</v>
@@ -585,47 +651,47 @@
         <v>237.9298898973548</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44926</v>
       </c>
       <c r="B8">
-        <v>172.8770194873308</v>
+        <v>172.87701948733081</v>
       </c>
       <c r="C8">
-        <v>229.5399805888314</v>
+        <v>229.53998058883141</v>
       </c>
       <c r="D8">
-        <v>2124.251247317044</v>
+        <v>2124.2512473170441</v>
       </c>
       <c r="E8">
         <v>104.0268062185081</v>
       </c>
       <c r="F8">
-        <v>1519.760155766795</v>
+        <v>1519.7601557667949</v>
       </c>
       <c r="G8">
-        <v>1512.96095354688</v>
+        <v>1512.9609535468801</v>
       </c>
       <c r="H8">
-        <v>415.9329178374388</v>
+        <v>415.93291783743882</v>
       </c>
       <c r="I8">
         <v>251.6040694504666</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45016</v>
       </c>
       <c r="B9">
-        <v>170.9839023899019</v>
+        <v>170.98390238990191</v>
       </c>
       <c r="C9">
         <v>247.744304662177</v>
       </c>
       <c r="D9">
-        <v>2144.577295214385</v>
+        <v>2144.5772952143848</v>
       </c>
       <c r="E9">
         <v>105.0221940515036</v>
@@ -637,24 +703,24 @@
         <v>1522.99399388232</v>
       </c>
       <c r="H9">
-        <v>417.8636805997089</v>
+        <v>417.86368059970891</v>
       </c>
       <c r="I9">
-        <v>265.2796985016511</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>265.27969850165113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45107</v>
       </c>
       <c r="B10">
-        <v>169.090785292473</v>
+        <v>169.09078529247299</v>
       </c>
       <c r="C10">
-        <v>267.0607105026184</v>
+        <v>267.06071050261841</v>
       </c>
       <c r="D10">
-        <v>2167.323110718551</v>
+        <v>2167.3231107185511</v>
       </c>
       <c r="E10">
         <v>106.1360804360461</v>
@@ -666,53 +732,53 @@
         <v>1526.525817874995</v>
       </c>
       <c r="H10">
-        <v>419.8006317041657</v>
+        <v>419.80063170416571</v>
       </c>
       <c r="I10">
-        <v>279.098793894949</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>279.09879389494898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45199</v>
       </c>
       <c r="B11">
-        <v>167.1976681950441</v>
+        <v>167.19766819504409</v>
       </c>
       <c r="C11">
-        <v>286.7989404616134</v>
+        <v>286.79894046161343</v>
       </c>
       <c r="D11">
-        <v>2191.242961617141</v>
+        <v>2191.2429616171412</v>
       </c>
       <c r="E11">
-        <v>107.3074605622652</v>
+        <v>107.30746056226521</v>
       </c>
       <c r="F11">
-        <v>1558.215952802189</v>
+        <v>1558.2159528021889</v>
       </c>
       <c r="G11">
-        <v>1522.583273222138</v>
+        <v>1522.5832732221379</v>
       </c>
       <c r="H11">
-        <v>421.7561478351828</v>
+        <v>421.75614783518279</v>
       </c>
       <c r="I11">
-        <v>293.0596155159823</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>293.05961551598227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45291</v>
       </c>
       <c r="B12">
-        <v>168.1865046876457</v>
+        <v>168.18650468764571</v>
       </c>
       <c r="C12">
-        <v>294.891229791251</v>
+        <v>294.89122979125102</v>
       </c>
       <c r="D12">
-        <v>2215.897704900026</v>
+        <v>2215.8977049000259</v>
       </c>
       <c r="E12">
         <v>108.5148291374726</v>
@@ -727,10 +793,10 @@
         <v>423.7302289927602</v>
       </c>
       <c r="I12">
-        <v>298.0259220370763</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>298.02592203707633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45382</v>
       </c>
@@ -738,10 +804,10 @@
         <v>169.1753411802471</v>
       </c>
       <c r="C13">
-        <v>303.4053432394419</v>
+        <v>303.40534323944189</v>
       </c>
       <c r="D13">
-        <v>2239.163322334549</v>
+        <v>2239.1633223345489</v>
       </c>
       <c r="E13">
         <v>109.6541707664215</v>
@@ -753,13 +819,13 @@
         <v>1538.937335064132</v>
       </c>
       <c r="H13">
-        <v>425.716686834711</v>
+        <v>425.71668683471103</v>
       </c>
       <c r="I13">
-        <v>303.152816414274</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>303.15281641427401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45473</v>
       </c>
@@ -767,28 +833,28 @@
         <v>170.1641776728485</v>
       </c>
       <c r="C14">
-        <v>312.3029331590456</v>
+        <v>312.30293315904561</v>
       </c>
       <c r="D14">
-        <v>2263.835989821929</v>
+        <v>2263.8359898219292</v>
       </c>
       <c r="E14">
         <v>110.8624171086775</v>
       </c>
       <c r="F14">
-        <v>1589.915737604813</v>
+        <v>1589.9157376048131</v>
       </c>
       <c r="G14">
         <v>1547.192951576636</v>
       </c>
       <c r="H14">
-        <v>427.699019115204</v>
+        <v>427.69901911520401</v>
       </c>
       <c r="I14">
-        <v>308.3400367653535</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>308.34003676535349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45565</v>
       </c>
@@ -796,115 +862,115 @@
         <v>171.15301416545</v>
       </c>
       <c r="C15">
-        <v>320.6636560186718</v>
+        <v>320.66365601867182</v>
       </c>
       <c r="D15">
         <v>2288.696861456508</v>
       </c>
       <c r="E15">
-        <v>112.0798800049426</v>
+        <v>112.07988000494259</v>
       </c>
       <c r="F15">
-        <v>1600.482332539021</v>
+        <v>1600.4823325390209</v>
       </c>
       <c r="G15">
-        <v>1555.980838963326</v>
+        <v>1555.9808389633261</v>
       </c>
       <c r="H15">
-        <v>429.6875397378839</v>
+        <v>429.68753973788392</v>
       </c>
       <c r="I15">
-        <v>313.6292519384519</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>313.62925193845189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45657</v>
       </c>
       <c r="B16">
-        <v>173.696489262009</v>
+        <v>173.69648926200901</v>
       </c>
       <c r="C16">
-        <v>321.9393393754294</v>
+        <v>321.93933937542943</v>
       </c>
       <c r="D16">
-        <v>2314.570450645053</v>
+        <v>2314.5704506450529</v>
       </c>
       <c r="E16">
         <v>113.3469367394478</v>
       </c>
       <c r="F16">
-        <v>1639.918675451804</v>
+        <v>1639.9186754518039</v>
       </c>
       <c r="G16">
-        <v>1592.1555871791</v>
+        <v>1592.1555871790999</v>
       </c>
       <c r="H16">
-        <v>431.6801859220216</v>
+        <v>431.68018592202162</v>
       </c>
       <c r="I16">
-        <v>314.0550211708248</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>314.05502117082477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45747</v>
       </c>
       <c r="B17">
-        <v>176.2399643585682</v>
+        <v>176.23996435856819</v>
       </c>
       <c r="C17">
-        <v>323.1766750850451</v>
+        <v>323.17667508504508</v>
       </c>
       <c r="D17">
-        <v>2339.870465289759</v>
+        <v>2339.8704652897591</v>
       </c>
       <c r="E17">
-        <v>114.5859049284012</v>
+        <v>114.58590492840121</v>
       </c>
       <c r="F17">
-        <v>1679.355018364587</v>
+        <v>1679.3550183645871</v>
       </c>
       <c r="G17">
-        <v>1622.72359467839</v>
+        <v>1622.7235946783901</v>
       </c>
       <c r="H17">
-        <v>433.6707693254303</v>
+        <v>433.67076932543029</v>
       </c>
       <c r="I17">
         <v>314.5186220365847</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45838</v>
       </c>
       <c r="B18">
-        <v>178.7834394551271</v>
+        <v>178.78343945512711</v>
       </c>
       <c r="C18">
         <v>324.3756631475203</v>
       </c>
       <c r="D18">
-        <v>2365.304911468177</v>
+        <v>2365.3049114681771</v>
       </c>
       <c r="E18">
-        <v>115.8314563702182</v>
+        <v>115.83145637021821</v>
       </c>
       <c r="F18">
-        <v>1718.791361277369</v>
+        <v>1718.7913612773691</v>
       </c>
       <c r="G18">
-        <v>1646.251758185996</v>
+        <v>1646.2517581859961</v>
       </c>
       <c r="H18">
-        <v>435.6365993600921</v>
+        <v>435.63659936009208</v>
       </c>
       <c r="I18">
-        <v>315.0306389861768</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>315.03063898617683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45930</v>
       </c>
@@ -912,36 +978,36 @@
         <v>181.3269145516862</v>
       </c>
       <c r="C19">
-        <v>325.5746512099951</v>
+        <v>325.57465120999512</v>
       </c>
       <c r="D19">
-        <v>2390.18370730725</v>
+        <v>2390.1837073072502</v>
       </c>
       <c r="E19">
         <v>117.0497970335318</v>
       </c>
       <c r="F19">
-        <v>1758.227704190152</v>
+        <v>1758.2277041901521</v>
       </c>
       <c r="G19">
-        <v>1663.419621050189</v>
+        <v>1663.4196210501891</v>
       </c>
       <c r="H19">
-        <v>437.5879899296513</v>
+        <v>437.58798992965131</v>
       </c>
       <c r="I19">
-        <v>315.5836247077208</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>315.58362470772079</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>46022</v>
       </c>
       <c r="B20">
-        <v>183.8598520300704</v>
+        <v>183.85985203007041</v>
       </c>
       <c r="C20">
-        <v>326.8177640278367</v>
+        <v>326.81776402783669</v>
       </c>
       <c r="D20">
         <v>2414.937033714858</v>
@@ -956,13 +1022,13 @@
         <v>1671.430699166094</v>
       </c>
       <c r="H20">
-        <v>439.5249410341081</v>
+        <v>439.52494103410811</v>
       </c>
       <c r="I20">
         <v>316.2395853229205</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>46112</v>
       </c>
@@ -970,28 +1036,28 @@
         <v>186.3927895084546</v>
       </c>
       <c r="C21">
-        <v>328.060876845678</v>
+        <v>328.06087684567802</v>
       </c>
       <c r="D21">
-        <v>2439.896488474158</v>
+        <v>2439.8964884741581</v>
       </c>
       <c r="E21">
         <v>119.4842839425379</v>
       </c>
       <c r="F21">
-        <v>1817.011687008846</v>
+        <v>1817.0116870088459</v>
       </c>
       <c r="G21">
-        <v>1682.143110447285</v>
+        <v>1682.1431104472849</v>
       </c>
       <c r="H21">
-        <v>441.4495154541913</v>
+        <v>441.44951545419133</v>
       </c>
       <c r="I21">
-        <v>316.9551401751367</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>316.95514017513671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>46203</v>
       </c>
@@ -999,68 +1065,68 @@
         <v>188.9257269868389</v>
       </c>
       <c r="C22">
-        <v>329.3423373106605</v>
+        <v>329.34233731066053</v>
       </c>
       <c r="D22">
         <v>2464.336141303103</v>
       </c>
       <c r="E22">
-        <v>120.6811193131633</v>
+        <v>120.68111931316329</v>
       </c>
       <c r="F22">
         <v>1846.403678418194</v>
       </c>
       <c r="G22">
-        <v>1694.660780210272</v>
+        <v>1694.6607802102719</v>
       </c>
       <c r="H22">
-        <v>443.3555248477143</v>
+        <v>443.35552484771432</v>
       </c>
       <c r="I22">
-        <v>317.7104862177869</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>317.71048621778692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>46295</v>
       </c>
       <c r="B23">
-        <v>191.458664465223</v>
+        <v>191.45866446522299</v>
       </c>
       <c r="C23">
-        <v>330.6237977756431</v>
+        <v>330.62379777564308</v>
       </c>
       <c r="D23">
-        <v>2488.515893166871</v>
+        <v>2488.5158931668711</v>
       </c>
       <c r="E23">
         <v>121.8652270615856</v>
       </c>
       <c r="F23">
-        <v>1875.795669827541</v>
+        <v>1875.7956698275409</v>
       </c>
       <c r="G23">
-        <v>1709.389638218303</v>
+        <v>1709.3896382183029</v>
       </c>
       <c r="H23">
-        <v>445.2594714605085</v>
+        <v>445.25947146050851</v>
       </c>
       <c r="I23">
-        <v>318.554152300221</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>318.55415230022101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>46387</v>
       </c>
       <c r="B24">
-        <v>194.3625430995205</v>
+        <v>194.36254309952051</v>
       </c>
       <c r="C24">
-        <v>330.3903433299089</v>
+        <v>330.39034332990889</v>
       </c>
       <c r="D24">
-        <v>2512.256502020511</v>
+        <v>2512.2565020205111</v>
       </c>
       <c r="E24">
         <v>123.0278295173197</v>
@@ -1072,21 +1138,21 @@
         <v>1722.372615576626</v>
       </c>
       <c r="H24">
-        <v>447.1654808540314</v>
+        <v>447.16548085403139</v>
       </c>
       <c r="I24">
-        <v>318.298501338272</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>318.29850133827199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>46477</v>
       </c>
       <c r="B25">
-        <v>197.2664217338179</v>
+        <v>197.26642173381791</v>
       </c>
       <c r="C25">
-        <v>330.156888884175</v>
+        <v>330.15688888417498</v>
       </c>
       <c r="D25">
         <v>2535.665513090993</v>
@@ -1098,24 +1164,24 @@
         <v>1940.63407575972</v>
       </c>
       <c r="G25">
-        <v>1735.042947442973</v>
+        <v>1735.0429474429729</v>
       </c>
       <c r="H25">
         <v>449.0735530282833</v>
       </c>
       <c r="I25">
-        <v>318.1336669145778</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>318.13366691457782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>46568</v>
       </c>
       <c r="B26">
-        <v>200.1703003681153</v>
+        <v>200.17030036811531</v>
       </c>
       <c r="C26">
-        <v>329.9617820855823</v>
+        <v>329.96178208558229</v>
       </c>
       <c r="D26">
         <v>2559.083486263723</v>
@@ -1124,30 +1190,30 @@
         <v>125.3209959315177</v>
       </c>
       <c r="F26">
-        <v>1973.05327872581</v>
+        <v>1973.0532787258101</v>
       </c>
       <c r="G26">
-        <v>1746.495339308114</v>
+        <v>1746.4953393081139</v>
       </c>
       <c r="H26">
-        <v>450.9836879832642</v>
+        <v>450.98368798326419</v>
       </c>
       <c r="I26">
-        <v>318.0456508243982</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>318.04565082439819</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>46660</v>
       </c>
       <c r="B27">
-        <v>203.0741790024126</v>
+        <v>203.07417900241259</v>
       </c>
       <c r="C27">
-        <v>329.8050229341309</v>
+        <v>329.80502293413088</v>
       </c>
       <c r="D27">
-        <v>2582.83305721961</v>
+        <v>2582.8330572196101</v>
       </c>
       <c r="E27">
         <v>126.4840372707761</v>
@@ -1156,16 +1222,16 @@
         <v>2005.472481691899</v>
       </c>
       <c r="G27">
-        <v>1757.188212156519</v>
+        <v>1757.1882121565191</v>
       </c>
       <c r="H27">
-        <v>452.9061996226185</v>
+        <v>452.90619962261849</v>
       </c>
       <c r="I27">
-        <v>318.0641013417735</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>318.06410134177349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>46752</v>
       </c>
@@ -1173,33 +1239,33 @@
         <v>206.00159731602</v>
       </c>
       <c r="C28">
-        <v>329.5496947727075</v>
+        <v>329.54969477270748</v>
       </c>
       <c r="D28">
-        <v>2607.093468003606</v>
+        <v>2607.0934680036062</v>
       </c>
       <c r="E28">
         <v>127.6720949709166</v>
       </c>
       <c r="F28">
-        <v>2057.175987328752</v>
+        <v>2057.1759873287519</v>
       </c>
       <c r="G28">
-        <v>1788.950995974484</v>
+        <v>1788.9509959744839</v>
       </c>
       <c r="H28">
-        <v>454.8328368234307</v>
+        <v>454.83283682343068</v>
       </c>
       <c r="I28">
-        <v>318.0972922923904</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>318.09729229239042</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>46843</v>
       </c>
       <c r="B29">
-        <v>208.9290156296273</v>
+        <v>208.92901562962729</v>
       </c>
       <c r="C29">
         <v>329.2943666112842</v>
@@ -1208,51 +1274,51 @@
         <v>2631.766135490986</v>
       </c>
       <c r="E29">
-        <v>128.8803413131725</v>
+        <v>128.88034131317249</v>
       </c>
       <c r="F29">
         <v>2108.879492965606</v>
       </c>
       <c r="G29">
-        <v>1816.718954125729</v>
+        <v>1816.7189541257289</v>
       </c>
       <c r="H29">
-        <v>456.7677251471586</v>
+        <v>456.76772514715861</v>
       </c>
       <c r="I29">
-        <v>318.1778692803887</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>318.17786928038868</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>46934</v>
       </c>
       <c r="B30">
-        <v>211.8564339432347</v>
+        <v>211.85643394323469</v>
       </c>
       <c r="C30">
-        <v>329.0773860970021</v>
+        <v>329.07738609700209</v>
       </c>
       <c r="D30">
-        <v>2656.770400761524</v>
+        <v>2656.7704007615239</v>
       </c>
       <c r="E30">
-        <v>130.1048263458256</v>
+        <v>130.10482634582559</v>
       </c>
       <c r="F30">
-        <v>2160.58299860246</v>
+        <v>2160.5829986024601</v>
       </c>
       <c r="G30">
-        <v>1839.692279159803</v>
+        <v>1839.6922791598031</v>
       </c>
       <c r="H30">
-        <v>458.7273668396334</v>
+        <v>458.72736683963342</v>
       </c>
       <c r="I30">
-        <v>318.3637927958924</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>318.36379279589238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>47026</v>
       </c>
@@ -1260,28 +1326,28 @@
         <v>214.7838522568419</v>
       </c>
       <c r="C31">
-        <v>328.8604055827201</v>
+        <v>328.86040558272009</v>
       </c>
       <c r="D31">
-        <v>2681.729855520825</v>
+        <v>2681.7298555208249</v>
       </c>
       <c r="E31">
         <v>131.3271169608575</v>
       </c>
       <c r="F31">
-        <v>2212.286504239313</v>
+        <v>2212.2865042393132</v>
       </c>
       <c r="G31">
         <v>1858.259733230635</v>
       </c>
       <c r="H31">
-        <v>460.7076363393975</v>
+        <v>460.70763633939748</v>
       </c>
       <c r="I31">
-        <v>318.6470765543372</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>318.64707655433722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>47118</v>
       </c>
@@ -1289,115 +1355,115 @@
         <v>217.8087435385666</v>
       </c>
       <c r="C32">
-        <v>328.2736187284401</v>
+        <v>328.27361872844011</v>
       </c>
       <c r="D32">
-        <v>2706.787893404848</v>
+        <v>2706.7878934048481</v>
       </c>
       <c r="E32">
-        <v>132.5542352946561</v>
+        <v>132.55423529465611</v>
       </c>
       <c r="F32">
-        <v>2211.534313846609</v>
+        <v>2211.5343138466092</v>
       </c>
       <c r="G32">
-        <v>1832.429418953229</v>
+        <v>1832.4294189532291</v>
       </c>
       <c r="H32">
-        <v>462.71059642718</v>
+        <v>462.71059642718001</v>
       </c>
       <c r="I32">
-        <v>318.722340841722</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>318.72234084172197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>47208</v>
       </c>
       <c r="B33">
-        <v>220.8336348202913</v>
+        <v>220.83363482029131</v>
       </c>
       <c r="C33">
-        <v>327.6868318741599</v>
+        <v>327.68683187415991</v>
       </c>
       <c r="D33">
-        <v>2731.926590209098</v>
+        <v>2731.9265902090979</v>
       </c>
       <c r="E33">
-        <v>133.785303580173</v>
+        <v>133.78530358017301</v>
       </c>
       <c r="F33">
-        <v>2210.782123453905</v>
+        <v>2210.7821234539051</v>
       </c>
       <c r="G33">
         <v>1818.576749321116</v>
       </c>
       <c r="H33">
-        <v>464.7321215415225</v>
+        <v>464.73212154152247</v>
       </c>
       <c r="I33">
-        <v>318.8695206112369</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>318.86952061123691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>47299</v>
       </c>
       <c r="B34">
-        <v>223.8585261020162</v>
+        <v>223.85852610201621</v>
       </c>
       <c r="C34">
         <v>327.1000450198793</v>
       </c>
       <c r="D34">
-        <v>2757.020476502112</v>
+        <v>2757.0204765021122</v>
       </c>
       <c r="E34">
-        <v>135.0141774480686</v>
+        <v>135.01417744806861</v>
       </c>
       <c r="F34">
-        <v>2210.029933061201</v>
+        <v>2210.0299330612011</v>
       </c>
       <c r="G34">
-        <v>1816.440465262758</v>
+        <v>1816.4404652627579</v>
       </c>
       <c r="H34">
-        <v>466.7680861209674</v>
+        <v>466.76808612096738</v>
       </c>
       <c r="I34">
-        <v>319.1026789212746</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>319.10267892127462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>47391</v>
       </c>
       <c r="B35">
-        <v>226.8834173837407</v>
+        <v>226.88341738374069</v>
       </c>
       <c r="C35">
         <v>326.551605812741</v>
       </c>
       <c r="D35">
-        <v>2782.015779670403</v>
+        <v>2782.0157796704029</v>
       </c>
       <c r="E35">
-        <v>136.2382235971974</v>
+        <v>136.23822359719739</v>
       </c>
       <c r="F35">
-        <v>2209.277742668496</v>
+        <v>2209.2777426684961</v>
       </c>
       <c r="G35">
         <v>1826.107622074454</v>
       </c>
       <c r="H35">
-        <v>468.8019879196835</v>
+        <v>468.80198791968348</v>
       </c>
       <c r="I35">
-        <v>319.3859062975591</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>319.38590629755907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>47483</v>
       </c>
@@ -1405,28 +1471,28 @@
         <v>230.0749559980533</v>
       </c>
       <c r="C36">
-        <v>325.382050244453</v>
+        <v>325.38205024445301</v>
       </c>
       <c r="D36">
-        <v>2807.244097497128</v>
+        <v>2807.2440974971282</v>
       </c>
       <c r="E36">
-        <v>137.4736807179567</v>
+        <v>137.47368071795671</v>
       </c>
       <c r="F36">
-        <v>2261.649308772566</v>
+        <v>2261.6493087725662</v>
       </c>
       <c r="G36">
         <v>1883.521840106393</v>
       </c>
       <c r="H36">
-        <v>470.8317641569417</v>
+        <v>470.83176415694169</v>
       </c>
       <c r="I36">
-        <v>319.1911094565605</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>319.19110945656053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>47573</v>
       </c>
@@ -1434,42 +1500,42 @@
         <v>233.2664946123657</v>
       </c>
       <c r="C37">
-        <v>324.2508423233061</v>
+        <v>324.25084232330607</v>
       </c>
       <c r="D37">
-        <v>2832.544112141834</v>
+        <v>2832.5441121418339</v>
       </c>
       <c r="E37">
         <v>138.71264890691</v>
       </c>
       <c r="F37">
-        <v>2314.020874876635</v>
+        <v>2314.0208748766349</v>
       </c>
       <c r="G37">
         <v>1928.497184954686</v>
       </c>
       <c r="H37">
-        <v>472.8636031749288</v>
+        <v>472.86360317492881</v>
       </c>
       <c r="I37">
-        <v>319.0556763403621</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>319.05567634036208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>47664</v>
       </c>
       <c r="B38">
-        <v>236.4580332266783</v>
+        <v>236.45803322667831</v>
       </c>
       <c r="C38">
-        <v>323.1963296964417</v>
+        <v>323.19632969644169</v>
       </c>
       <c r="D38">
-        <v>2858.148838262954</v>
+        <v>2858.1488382629541</v>
       </c>
       <c r="E38">
-        <v>139.9665391356878</v>
+        <v>139.96653913568781</v>
       </c>
       <c r="F38">
         <v>2366.392440980705</v>
@@ -1478,13 +1544,13 @@
         <v>1962.138859372219</v>
       </c>
       <c r="H38">
-        <v>474.8954421929159</v>
+        <v>474.89544219291588</v>
       </c>
       <c r="I38">
-        <v>318.9751420353895</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>318.97514203538952</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>47756</v>
       </c>
@@ -1492,141 +1558,141 @@
         <v>239.6495718409908</v>
       </c>
       <c r="C39">
-        <v>322.2185123638595</v>
+        <v>322.21851236385947</v>
       </c>
       <c r="D39">
-        <v>2884.246480007688</v>
+        <v>2884.2464800076882</v>
       </c>
       <c r="E39">
-        <v>141.2445679582993</v>
+        <v>141.24456795829931</v>
       </c>
       <c r="F39">
-        <v>2418.764007084774</v>
+        <v>2418.7640070847742</v>
       </c>
       <c r="G39">
         <v>1983.801049724259</v>
       </c>
       <c r="H39">
-        <v>476.9272812109031</v>
+        <v>476.92728121090312</v>
       </c>
       <c r="I39">
         <v>318.9496051242694</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>47848</v>
       </c>
       <c r="B40">
-        <v>242.9658622575668</v>
+        <v>242.96586225756681</v>
       </c>
       <c r="C40">
-        <v>320.79501015719</v>
+        <v>320.79501015719001</v>
       </c>
       <c r="D40">
-        <v>2910.801188967045</v>
+        <v>2910.8011889670452</v>
       </c>
       <c r="E40">
-        <v>142.5449798406474</v>
+        <v>142.54497984064739</v>
       </c>
       <c r="F40">
-        <v>2464.365205130986</v>
+        <v>2464.3652051309859</v>
       </c>
       <c r="G40">
-        <v>1944.788502824117</v>
+        <v>1944.7885028241169</v>
       </c>
       <c r="H40">
-        <v>478.9653085710771</v>
+        <v>478.96530857107712</v>
       </c>
       <c r="I40">
-        <v>318.6033482674833</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>318.60334826748328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>47938</v>
       </c>
       <c r="B41">
-        <v>246.2821526741428</v>
+        <v>246.28215267414279</v>
       </c>
       <c r="C41">
-        <v>319.448203244803</v>
+        <v>319.44820324480298</v>
       </c>
       <c r="D41">
-        <v>2937.875699856757</v>
+        <v>2937.8756998567569</v>
       </c>
       <c r="E41">
         <v>143.8708469674018</v>
       </c>
       <c r="F41">
-        <v>2509.966403177198</v>
+        <v>2509.9664031771981</v>
       </c>
       <c r="G41">
-        <v>1906.448597273352</v>
+        <v>1906.4485972733521</v>
       </c>
       <c r="H41">
-        <v>481.0053987119799</v>
+        <v>481.00539871197992</v>
       </c>
       <c r="I41">
-        <v>318.3172033534682</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>318.31720335346819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>48029</v>
       </c>
       <c r="B42">
-        <v>249.5984430907191</v>
+        <v>249.59844309071909</v>
       </c>
       <c r="C42">
-        <v>318.2164392738399</v>
+        <v>318.21643927383991</v>
       </c>
       <c r="D42">
-        <v>2965.048793871191</v>
+        <v>2965.0487938711908</v>
       </c>
       <c r="E42">
         <v>145.2015418129231</v>
       </c>
       <c r="F42">
-        <v>2555.567601223409</v>
+        <v>2555.5676012234089</v>
       </c>
       <c r="G42">
         <v>1870.239333659976</v>
       </c>
       <c r="H42">
-        <v>483.0496144143407</v>
+        <v>483.04961441434068</v>
       </c>
       <c r="I42">
-        <v>318.111730482906</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>318.11173048290601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>48121</v>
       </c>
       <c r="B43">
-        <v>252.914733507295</v>
+        <v>252.91473350729501</v>
       </c>
       <c r="C43">
-        <v>317.0230229500177</v>
+        <v>317.02302295001772</v>
       </c>
       <c r="D43">
-        <v>2992.374243623832</v>
+        <v>2992.3742436238322</v>
       </c>
       <c r="E43">
-        <v>146.5396976783566</v>
+        <v>146.53969767835659</v>
       </c>
       <c r="F43">
-        <v>2601.168799269621</v>
+        <v>2601.1687992696211</v>
       </c>
       <c r="G43">
-        <v>1835.421825747958</v>
+        <v>1835.4218257479581</v>
       </c>
       <c r="H43">
-        <v>485.0917673359725</v>
+        <v>485.09176733597252</v>
       </c>
       <c r="I43">
-        <v>317.9573811260476</v>
+        <v>317.95738112604761</v>
       </c>
     </row>
   </sheetData>
